--- a/Crawling/music/crawled_data/outlier_data/2022-05-16_2022-05-22/2022-05-16_2022-05-22_Top50_100_rank_change_df.xlsx
+++ b/Crawling/music/crawled_data/outlier_data/2022-05-16_2022-05-22/2022-05-16_2022-05-22_Top50_100_rank_change_df.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="31">
-  <si>
-    <t>현재순위평균</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
+  <si>
+    <t>이번주순위평균</t>
   </si>
   <si>
     <t>곡</t>
@@ -31,7 +31,7 @@
     <t>사이트</t>
   </si>
   <si>
-    <t>과거순위평균</t>
+    <t>전주순위평균</t>
   </si>
   <si>
     <t>Dynamite</t>
@@ -40,27 +40,30 @@
     <t>Real Love</t>
   </si>
   <si>
-    <t>Whisky on the Rock</t>
-  </si>
-  <si>
     <t>꽃 길</t>
   </si>
   <si>
     <t>모든 날, 모든 순간 (Every day, Every Moment)</t>
   </si>
   <si>
+    <t>밤이 깊었네 (feat. 헤이즈)</t>
+  </si>
+  <si>
     <t>스물다섯, 스물하나</t>
   </si>
   <si>
     <t>우리들의 블루스</t>
   </si>
   <si>
-    <t>존재만으로</t>
+    <t>함부로 다정하게</t>
   </si>
   <si>
     <t>회전목마 (Feat. Zion.T, 원슈타인) (Prod. Slom)</t>
   </si>
   <si>
+    <t>YOU AND I</t>
+  </si>
+  <si>
     <t>밤하늘의 별을 (2020)</t>
   </si>
   <si>
@@ -70,27 +73,30 @@
     <t>오마이걸(OH MY GIRL)</t>
   </si>
   <si>
-    <t>김연지</t>
-  </si>
-  <si>
     <t>BIGBANG (빅뱅)</t>
   </si>
   <si>
     <t>폴킴(Paul Kim)</t>
   </si>
   <si>
+    <t>싸이 (PSY)</t>
+  </si>
+  <si>
     <t>자우림(Jaurim)</t>
   </si>
   <si>
     <t>임영웅</t>
   </si>
   <si>
-    <t>원슈타인</t>
+    <t>송하예</t>
   </si>
   <si>
     <t>sokodomo</t>
   </si>
   <si>
+    <t>WSG워너비 조별경연 (대청봉)</t>
+  </si>
+  <si>
     <t>경서</t>
   </si>
   <si>
@@ -101,12 +107,6 @@
   </si>
   <si>
     <t>Genie</t>
-  </si>
-  <si>
-    <t>Melon</t>
-  </si>
-  <si>
-    <t>Vibe</t>
   </si>
 </sst>
 </file>
@@ -464,7 +464,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -492,22 +492,22 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>67</v>
+        <v>59.7</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2">
-        <v>-8.599999999999994</v>
+        <v>6.899999999999991</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F2">
-        <v>75.59999999999999</v>
+        <v>66.59999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -518,13 +518,13 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F3">
         <v>60.6</v>
@@ -538,275 +538,235 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4">
-        <v>1.899999999999999</v>
+        <v>-5.600000000000001</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F4">
-        <v>54</v>
+        <v>50.3</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>68.3</v>
+        <v>52.3</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5">
-        <v>16.3</v>
+        <v>-12.7</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F5">
-        <v>52</v>
+        <v>39.6</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>89</v>
+        <v>78.5</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6">
-        <v>17.5</v>
+        <v>-0.7000000000000028</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F6">
-        <v>71.5</v>
+        <v>77.8</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>78.5</v>
+        <v>72</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7">
-        <v>-14.2</v>
+        <v>13.3</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F7">
-        <v>92.7</v>
+        <v>85.3</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>79.8</v>
+        <v>53.8</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D8">
-        <v>-5.5</v>
+        <v>-20.8</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F8">
-        <v>85.3</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>85.3</v>
+        <v>74</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9">
-        <v>15.59999999999999</v>
+        <v>-7.900000000000006</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F9">
-        <v>69.7</v>
+        <v>66.09999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>72.2</v>
+        <v>57.8</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D10">
-        <v>11.2</v>
+        <v>-8.699999999999996</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F10">
-        <v>61</v>
+        <v>49.1</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>75.90000000000001</v>
+        <v>72.8</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11">
-        <v>17.3</v>
+        <v>-39.8</v>
       </c>
       <c r="E11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F11">
-        <v>58.6</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>97.8</v>
+        <v>69.8</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D12">
-        <v>12.5</v>
+        <v>4.299999999999997</v>
       </c>
       <c r="E12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F12">
-        <v>85.3</v>
+        <v>74.09999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>58.9</v>
+        <v>79</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D13">
-        <v>6.399999999999999</v>
+        <v>-45</v>
       </c>
       <c r="E13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F13">
-        <v>52.5</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>58.7</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D14">
-        <v>5.900000000000006</v>
+        <v>-0.6000000000000085</v>
       </c>
       <c r="E14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F14">
-        <v>52.8</v>
+        <v>73.3</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>77.2</v>
+        <v>82.7</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D15">
-        <v>3.100000000000009</v>
+        <v>1.200000000000003</v>
       </c>
       <c r="E15" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F15">
-        <v>74.09999999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16">
-        <v>73.90000000000001</v>
-      </c>
-      <c r="B16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16">
-        <v>0.6000000000000085</v>
-      </c>
-      <c r="E16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16">
-        <v>73.3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17">
-        <v>88.2</v>
-      </c>
-      <c r="B17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17">
-        <v>4.299999999999997</v>
-      </c>
-      <c r="E17" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17">
         <v>83.90000000000001</v>
       </c>
     </row>
